--- a/my1stProject/uartcrosser/uartcrosser.xlsx
+++ b/my1stProject/uartcrosser/uartcrosser.xlsx
@@ -1630,13 +1630,13 @@
     <t>DTRn</t>
   </si>
   <si>
-    <t>uart1</t>
-  </si>
-  <si>
     <t>spiritconsortium.org,busdef.generic,serial_rtl,1.0</t>
   </si>
   <si>
     <t>mirroredMaster</t>
+  </si>
+  <si>
+    <t>Uart1</t>
   </si>
 </sst>
 </file>
@@ -2801,10 +2801,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6122,7 +6122,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6191,12 +6191,12 @@
         <v>444</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="111"/>
       <c r="F3" s="111" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G3" s="111"/>
       <c r="H3" s="111"/>
@@ -6286,16 +6286,16 @@
     </row>
     <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>450</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>451</v>
       </c>
       <c r="C9" s="87"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -7479,7 +7479,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="166"/>
+      <c r="B3" s="165"/>
       <c r="C3" s="112"/>
       <c r="D3" s="113"/>
       <c r="E3" s="114"/>
@@ -7493,8 +7493,8 @@
       <c r="M3" s="118"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="166"/>
-      <c r="C4" s="166"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
       <c r="D4" s="167"/>
       <c r="E4" s="168"/>
       <c r="F4" s="115"/>
@@ -7507,8 +7507,8 @@
       <c r="M4" s="118"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="166"/>
-      <c r="C5" s="166"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="165"/>
       <c r="D5" s="167"/>
       <c r="E5" s="168"/>
       <c r="F5" s="115"/>
@@ -7521,8 +7521,8 @@
       <c r="M5" s="118"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
       <c r="D6" s="167"/>
       <c r="E6" s="168"/>
       <c r="F6" s="115"/>
@@ -7535,8 +7535,8 @@
       <c r="M6" s="118"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
       <c r="D7" s="167"/>
       <c r="E7" s="168"/>
       <c r="F7" s="115"/>
@@ -7549,8 +7549,8 @@
       <c r="M7" s="118"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="166"/>
-      <c r="C8" s="166"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="165"/>
       <c r="D8" s="167"/>
       <c r="E8" s="168"/>
       <c r="F8" s="115"/>
@@ -7563,7 +7563,7 @@
       <c r="M8" s="124"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="166"/>
+      <c r="B9" s="165"/>
       <c r="C9" s="92"/>
       <c r="D9" s="113"/>
       <c r="E9" s="114"/>
@@ -7577,7 +7577,7 @@
       <c r="M9" s="124"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="166"/>
+      <c r="B10" s="165"/>
       <c r="C10" s="112"/>
       <c r="D10" s="113"/>
       <c r="E10" s="114"/>
@@ -7591,7 +7591,7 @@
       <c r="M10" s="113"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="166"/>
+      <c r="B11" s="165"/>
       <c r="C11" s="126"/>
       <c r="D11" s="118"/>
       <c r="E11" s="127"/>
@@ -7605,8 +7605,8 @@
       <c r="M11" s="118"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="165"/>
-      <c r="C12" s="166"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="165"/>
       <c r="D12" s="167"/>
       <c r="E12" s="114"/>
       <c r="F12" s="115"/>
@@ -7619,8 +7619,8 @@
       <c r="M12" s="124"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="165"/>
-      <c r="C13" s="166"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="165"/>
       <c r="D13" s="167"/>
       <c r="E13" s="114"/>
       <c r="F13" s="115"/>
@@ -7633,8 +7633,8 @@
       <c r="M13" s="124"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="165"/>
-      <c r="C14" s="166"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="165"/>
       <c r="D14" s="167"/>
       <c r="E14" s="114"/>
       <c r="F14" s="115"/>
@@ -7647,8 +7647,8 @@
       <c r="M14" s="124"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="165"/>
-      <c r="C15" s="166"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="165"/>
       <c r="D15" s="167"/>
       <c r="E15" s="114"/>
       <c r="F15" s="115"/>
@@ -7661,8 +7661,8 @@
       <c r="M15" s="124"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="165"/>
-      <c r="C16" s="166"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="165"/>
       <c r="D16" s="167"/>
       <c r="E16" s="114"/>
       <c r="F16" s="115"/>
@@ -7675,8 +7675,8 @@
       <c r="M16" s="124"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="165"/>
-      <c r="C17" s="166"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="165"/>
       <c r="D17" s="167"/>
       <c r="E17" s="114"/>
       <c r="F17" s="115"/>
@@ -7689,8 +7689,8 @@
       <c r="M17" s="124"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="165"/>
-      <c r="C18" s="166"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="165"/>
       <c r="D18" s="167"/>
       <c r="E18" s="114"/>
       <c r="F18" s="115"/>
@@ -7703,8 +7703,8 @@
       <c r="M18" s="124"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="165"/>
-      <c r="C19" s="166"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="165"/>
       <c r="D19" s="167"/>
       <c r="E19" s="114"/>
       <c r="F19" s="115"/>
@@ -7760,6 +7760,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B15"/>
@@ -7770,12 +7776,6 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/my1stProject/uartcrosser/uartcrosser.xlsx
+++ b/my1stProject/uartcrosser/uartcrosser.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="9" r:id="rId1"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="454">
   <si>
     <t>Component Name</t>
   </si>
@@ -1637,6 +1637,9 @@
   </si>
   <si>
     <t>Uart1</t>
+  </si>
+  <si>
+    <t>master</t>
   </si>
 </sst>
 </file>
@@ -6122,7 +6125,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6196,7 +6199,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="111"/>
       <c r="F3" s="111" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G3" s="111"/>
       <c r="H3" s="111"/>
